--- a/Meetings/Doku/Doku_Einteilung-Inhaltsverzeichnis.xlsx
+++ b/Meetings/Doku/Doku_Einteilung-Inhaltsverzeichnis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="12915" windowHeight="11055" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="12915" windowHeight="11055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Definitionsphase" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <r>
       <t xml:space="preserve">Projektstart EinkaufsApp
@@ -1411,6 +1411,48 @@
   </si>
   <si>
     <t>Durchführungsphase</t>
+  </si>
+  <si>
+    <t>ToDOs: 
+Moritz K.: Logik hinter Diagramm von Flori; alles fett gedruckte kursiv schreiben + Nummerierung neu einfügen
+Daniel: Mapping zu Moritz Schaub, Pup angucken und dran arbeiten, 
+als Externer auf Dia schauen + mit Moritz Schaub drüber schauen; soll sich bei Markus melden um Feedback zu geben</t>
+  </si>
+  <si>
+    <t>Markus Vorschlag im Dia : 5.Gruppenverwaltung als abgetrennten Teil mit Gruppeneinkauf (unter 3.7.) in extra Dia einfügen;  Quicklink auf Gruppenverwaltung --&gt; Mitgliederliste unter 3.7. unter 5.Gruppenverwaltung einfügen
+in Dia Rabatte von Produkten mit einfügen
+Idee: Kostenteilung unter Leuten, die nicht in Datenbank und nicht in Gruppe sind und eventuelle Trennung bestimmter Sachen unter den Leuten in der Gruppe z.B. Frauen wollen Sekt, Männer Bier
+Idee:
+Einkaufsbewertung --&gt; wie gefällt der Laden? Wie zufrieden war man mit dem Einkauf? Alles erhalten? Parkplatz 
+vorhanden?
+Idee Jannis: 
+Benutzerverwaltung: Profilbild, Account löschen, etc.--&gt; unter Einstellung auf Homescreen
+verworfene Idee:
+Google API verwenden --&gt; nicht für unsere App machbar
+Dia: Loginscreen: PW vergessen fehlt --&gt; hat Micha schon gebastelt bei Desginern
+Screens+ Interaktionen: 
+1: Laden auswählen
+2. Gruppenabfrage
+3. Barcodescanner
+4. Preis anzeigen
+5. Ausgabe + weiter zum Einkauf</t>
+  </si>
+  <si>
+    <t>Planungsphase Designer</t>
+  </si>
+  <si>
+    <t>Ideen/Vorschläge</t>
+  </si>
+  <si>
+    <t>außer Betrachtung gezogene Ideen</t>
+  </si>
+  <si>
+    <t>Außer Betrachtung:
+zwei/mehr Leute gleiche Liste verwenden und diese abarbeiten sodass die anderen das auch sehen
+Einkäufe die nicht abgeschlossen sind --&gt; out of scope
+nicht abgeschlossene Einkäufe nicht nochmal aufrufbar
+mehrere Leute können nicht an der Liste arbeiten und diese verwenden
+Einkaufsliste vorher schreiben und diese abarbeiten --&gt; gescannte Produkte werden abgehakt,</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2301,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,6 +2660,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="82">
+        <v>42306</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A20" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="82">
+        <v>42306</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="82">
+        <v>42306</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2627,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,7 +2723,7 @@
     <col min="4" max="4" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A1" s="94" t="s">
         <v>82</v>
       </c>

--- a/Meetings/Doku/Doku_Einteilung-Inhaltsverzeichnis.xlsx
+++ b/Meetings/Doku/Doku_Einteilung-Inhaltsverzeichnis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="12915" windowHeight="11055" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="12915" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="Definitionsphase" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <r>
       <t xml:space="preserve">Projektstart EinkaufsApp
@@ -1453,6 +1453,60 @@
 nicht abgeschlossene Einkäufe nicht nochmal aufrufbar
 mehrere Leute können nicht an der Liste arbeiten und diese verwenden
 Einkaufsliste vorher schreiben und diese abarbeiten --&gt; gescannte Produkte werden abgehakt,</t>
+  </si>
+  <si>
+    <t>Umsetzungen</t>
+  </si>
+  <si>
+    <t>PAP erweitert:
+Gruppeneinkauf vereinfacht, Einkauf fortsetzen eingebaut, PW rücksetzen</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>ToDOs</t>
+  </si>
+  <si>
+    <t>Eric Sorgalla: Bilderkennung von Preisschildern der Produkte und dann daraus EAN, Name und Preis definieren
+--&gt; hat Kontakte mit denen er dies durchführen will</t>
+  </si>
+  <si>
+    <t>Planungsphase Entwickler</t>
+  </si>
+  <si>
+    <t>Planungsphase alle</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Änderung Gruppenaufteilung (Daniel ist jetzt bei den Designern!)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*ToDos bis 30.10.15: Skilliste, Abstimmung GS1, einzelne Tätigkeiten in der Gruppe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Ablaufplan (s. Reiter "Ablaufplan"), nicht fix</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1562,7 +1616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1619,9 +1673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1838,6 +1889,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2140,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,24 +2234,24 @@
     <col min="4" max="4" width="77.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="31" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="30" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34">
+      <c r="B1" s="33">
         <v>42279.657638888886</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -2192,13 +2272,13 @@
       <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>42283.731944444444</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -2206,20 +2286,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" s="31" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:5" s="30" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>42284.313888888886</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2233,7 +2313,7 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2303,10 +2383,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="92">
         <v>42292</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -2320,20 +2400,34 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>42293.525694444441</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="109">
+        <v>42304</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2343,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,349 +2452,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="30">
+      <c r="B1" s="29">
         <v>42283.412499999999</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="29">
         <v>42283.412499999999</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="40">
         <v>42283.475694444445</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>42283.484722222223</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>42283.540277777778</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>42283.557638888888</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>42284.313888888886</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="49">
         <v>42284.418055555558</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="51">
         <v>42284.464583333334</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="59">
         <v>42287</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="85" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+    <row r="11" spans="1:5" s="84" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="93">
+      <c r="B11" s="92">
         <v>42288</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="93" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="55">
         <v>42291.345833333333</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="90" customFormat="1" ht="255" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+    <row r="13" spans="1:5" s="89" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A13" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="97">
         <v>42292.5</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="67">
         <v>42293.595833333333</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="285" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="72">
         <v>42296.447222222225</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="77">
         <v>42297.324999999997</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B17" s="81">
         <v>42300.467361111114</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="87">
+      <c r="B18" s="86">
         <v>42300.463888888888</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="106">
+        <v>42303.540972222225</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B20" s="81">
         <v>42306</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C20" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D20" s="94" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="405" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+    <row r="21" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A21" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="82">
+      <c r="B21" s="81">
         <v>42306</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C21" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D21" s="94" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="82">
+      <c r="B22" s="81">
         <v>42306</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C22" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D22" s="93" t="s">
         <v>88</v>
       </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="103">
+        <v>42307</v>
+      </c>
+      <c r="C23" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2709,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,38 +2847,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="405" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="93">
+      <c r="B1" s="92">
         <v>42288</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="96">
         <v>42303.540972222225</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="95" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="99">
+        <v>42303</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Meetings/Doku/Doku_Einteilung-Inhaltsverzeichnis.xlsx
+++ b/Meetings/Doku/Doku_Einteilung-Inhaltsverzeichnis.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Planungsphase" sheetId="2" r:id="rId2"/>
     <sheet name="Durchführungsphase" sheetId="3" r:id="rId3"/>
     <sheet name="Abschlussphase" sheetId="4" r:id="rId4"/>
+    <sheet name="Skilltabelle" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
   <si>
     <r>
       <t xml:space="preserve">Projektstart EinkaufsApp
@@ -1438,9 +1439,6 @@
 5. Ausgabe + weiter zum Einkauf</t>
   </si>
   <si>
-    <t>Planungsphase Designer</t>
-  </si>
-  <si>
     <t>Ideen/Vorschläge</t>
   </si>
   <si>
@@ -1507,6 +1505,168 @@
       <t xml:space="preserve">
 *Ablaufplan (s. Reiter "Ablaufplan"), nicht fix</t>
     </r>
+  </si>
+  <si>
+    <t>*Idee: Facebook, Twitter usw. zur Registrierung verwenden
+*Artikel zuweisen nach Einkauf auf Gruppenmitglieder (Noch muss gleich bei Einkauf eingepflegt werden)
+*was passiert falls kein Empfang (Offline-Version)</t>
+  </si>
+  <si>
+    <t>Ideen/Vorschläge
+Designer</t>
+  </si>
+  <si>
+    <t>Ideen/Vorschläge
+alle</t>
+  </si>
+  <si>
+    <t>ToDos</t>
+  </si>
+  <si>
+    <t>DB Modell überarbeitet, Arbeitspakete für jeden zugewiesen über Trello:
+Viktor Fuchs:
+Namenskonventionen ausarbeiten - Variablen und Funktionen
+Eric Sorgalla:
+Einführung in die Technik- Präsentation vorbereiten
+Modulplan erstellen
+Kanban-Board erstellen
+Florian Schmitt:
+HTML-Code der Proto.io App exportieren u. durchgehen
+Michael Hein:
+bereits erstellten Code kommentieren
+Sebastian Kiepsch:
+Einführung in die Technik- Präsentation vorbereiten
+Modulplan erstellen
+bereits erstellten Code kommentieren
+offene Aufgaben:
+*aktualisiertes DB Modell erstellen
+*EAN Kategorien recherchieren und Tabelle füllen
+*neues DB Modell implementieren
+*UML Diagramm erstellen</t>
+  </si>
+  <si>
+    <t>Planungsphase</t>
+  </si>
+  <si>
+    <t>*Gruppenverwaltung wurde zu Verwaltung allgemein:  Verwaltung von Gruppen UND KONTAKTE 
+*Kontaktverwaltung wird noch erstellt</t>
+  </si>
+  <si>
+    <t>Gespräch mit Frau Wieland + Herrn Georg</t>
+  </si>
+  <si>
+    <t>*Dozenten wollen GitHub Link für Repositories
+*Klassendiagramm: z.B. Kühlschrank mit Produkten und Verfallsdatum,…. --&gt; muss nur in Doku stehen!
+*Vorgehensmodell sollten wir nennen
+*Liste von Anforderungen an App ist sehr interessant für Frau Wieland, Anforderungen struturieren nach: basic, must have, nice to have und priorisieren
+*scope: Sicherheit!! ganz wichtig und unbedingt in Doku aufnehmen
+*out of focus Anforderungen sollen auch angegebenund priorisiert werden 
+*Architektur unbedingt angeben in Doku! Multi-Tier
+*Frameworks die genutzt werden, müssen gekennzeichnet werden
+*Frau Wieland hat Qualitätsmesser für Frameworks
+*private, package,protected sind in Ordnung aber public ist nicht gut
+Infos für Präsentation:
+*20min Zeit zum präsentieren, es kann auch nur einer oder zwei votragen
+*Video vorfühen ist in Ordnung
+*Fokus der Präsentation liegt auf Frau Wieland und NICHT auf Kunde!
+Infos für Doku:
+*ca. 30 Seiten als .pdf in ilias abzugeben
+*Handbuch und Installationsanweisung muss in den Anhang
+*alles was &gt;1 Tag Verspätung hat kostet Prozente!
+Termininfo:
+*08.01.2016: Vorstellung der Präsentation- Presse wird anwesend sein; frühestes Ende um 16 Uhr</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Skills vor Projektstart</t>
+  </si>
+  <si>
+    <t>Skills nach Projektstart</t>
+  </si>
+  <si>
+    <t>Moritz Karsten</t>
+  </si>
+  <si>
+    <t>*  Zwei Jahre Projektansprechpartner Messe Berlin
+*  Application Management</t>
+  </si>
+  <si>
+    <t>Huong Dang</t>
+  </si>
+  <si>
+    <t>* Zwei Jahre Vertrieb
+* Tools LaTex
+* Grundlagen VBA</t>
+  </si>
+  <si>
+    <t>Markus Hube</t>
+  </si>
+  <si>
+    <t>Projektleiter</t>
+  </si>
+  <si>
+    <t>*    Zwei Jahre PMO der operational services
+*    Zwei Jahre Programmiererfahrung (VBA)
+*   Bereits Vorarbeit zum Thema geleistet</t>
+  </si>
+  <si>
+    <t>Annika Köstler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Zwei Jahre Controlling
+* Tools Latex
+*Grundkenntnisse VBA
+*Protokollierung von Meetings </t>
+  </si>
+  <si>
+    <t>Michael Hein</t>
+  </si>
+  <si>
+    <t>Entwicklung</t>
+  </si>
+  <si>
+    <t>* Zwei Jahre Applikations Administration
+* Java Erfahrung
+*VBA Erfahrung
+*Skript Programmierung</t>
+  </si>
+  <si>
+    <t>Moritz Schaub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* 2 Jahre Co-Product Owner in iOS und Android Messaging Produkt in AGILER Entwicklung (internationales, crossfunktionales Team)
+* Erstellung von komplexen Prototypen mit Proto.io auf Basis von HTML5
+* Vorbereitung, Durchführung von Design Thinking Workshops, Kundeninterviews mit Zielgruppen (anhand von Proto.io) , A/B Testing, Designstudien
+* Stakeholder Management 
+</t>
+  </si>
+  <si>
+    <t>Eric Sorgalla</t>
+  </si>
+  <si>
+    <t>*Grundkenntnisse (Java, C/C++,Javascript,HTML/CSS,VBA,SQL)
+*1 Jahr Projektleitung ISIPT (nur kaufmännische Verantwortung)</t>
+  </si>
+  <si>
+    <t>Jannis Grohs</t>
+  </si>
+  <si>
+    <t>*Datenbanken (MYSQL, Apex)
+*Programmiererfahrung (VBA, JAVA, Apex)
+*Projektmanagement
+*Design + Marketingtechniken</t>
+  </si>
+  <si>
+    <t>Victor Fuchs</t>
+  </si>
+  <si>
+    <t>*gute Excelkenntnisse
+*gute Kenntnisse RW/C</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1575,8 +1735,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1612,11 +1778,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1900,16 +2077,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1917,8 +2090,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2223,7 +2418,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="A14:D14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,17 +2612,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="109">
+      <c r="B14" s="107">
         <v>42304</v>
       </c>
       <c r="C14" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="105" t="s">
         <v>96</v>
-      </c>
-      <c r="D14" s="107" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2437,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,15 +2951,15 @@
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="106">
+        <v>94</v>
+      </c>
+      <c r="B19" s="99">
         <v>42303.540972222225</v>
       </c>
       <c r="C19" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="105" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2772,7 +2967,7 @@
       <c r="A20" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="81">
+      <c r="B20" s="96">
         <v>42306</v>
       </c>
       <c r="C20" s="93" t="s">
@@ -2784,13 +2979,13 @@
     </row>
     <row r="21" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="96">
+        <v>42306</v>
+      </c>
+      <c r="C21" s="93" t="s">
         <v>85</v>
-      </c>
-      <c r="B21" s="81">
-        <v>42306</v>
-      </c>
-      <c r="C21" s="93" t="s">
-        <v>86</v>
       </c>
       <c r="D21" s="94" t="s">
         <v>84</v>
@@ -2798,32 +2993,75 @@
     </row>
     <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="81">
+        <v>98</v>
+      </c>
+      <c r="B22" s="96">
         <v>42306</v>
       </c>
       <c r="C22" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="93" t="s">
         <v>87</v>
-      </c>
-      <c r="D22" s="93" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="103">
+        <v>93</v>
+      </c>
+      <c r="B23" s="109">
         <v>42307</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="E23" s="89"/>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="96">
+        <v>42311</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A25" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="89"/>
+      <c r="B25" s="92">
+        <v>42312</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="93"/>
+    </row>
+    <row r="26" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A26" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="108">
+        <v>42313</v>
+      </c>
+      <c r="C26" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2832,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,18 +3120,32 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="99">
         <v>42303</v>
       </c>
       <c r="C3" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="E3" s="102"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="102"/>
+      <c r="B4" s="111">
+        <v>42312</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2912,4 +3164,147 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="89"/>
+    </row>
+    <row r="3" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="89"/>
+    </row>
+    <row r="4" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="89"/>
+    </row>
+    <row r="5" spans="1:4" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="89"/>
+    </row>
+    <row r="6" spans="1:4" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="89"/>
+    </row>
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="89"/>
+    </row>
+    <row r="8" spans="1:4" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="89"/>
+    </row>
+    <row r="9" spans="1:4" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="89"/>
+    </row>
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="89"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>